--- a/Data/Temperature Data/Trawl_Data/Vesteraalen Haul Info CPS2_MHS.xlsx
+++ b/Data/Temperature Data/Trawl_Data/Vesteraalen Haul Info CPS2_MHS.xlsx
@@ -1,32 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20408"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leah.Zacher\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\CPS2\Data\Temperature Data\Trawl_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{252E9B04-074A-42AD-87B6-908BFFD35774}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91525A2-87E3-427E-B4A8-88B0A72C8FD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10215" windowHeight="11220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1608" yWindow="672" windowWidth="28728" windowHeight="15048" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2024 CPS2 Vesteraalen" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="209">
   <si>
     <t>Times</t>
   </si>
@@ -806,9 +818,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -846,7 +858,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -952,7 +964,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1094,7 +1106,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1104,29 +1116,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BH131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="AL4" sqref="AL4:AL131"/>
+    <sheetView topLeftCell="A107" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:K131"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="10.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" style="6" customWidth="1"/>
-    <col min="12" max="18" width="9.140625" style="1"/>
-    <col min="19" max="19" width="6.85546875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="7.140625" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="10.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.109375" style="1"/>
+    <col min="7" max="7" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.44140625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="10.44140625" style="6" customWidth="1"/>
+    <col min="12" max="18" width="9.109375" style="1"/>
+    <col min="19" max="19" width="6.88671875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="7.109375" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.25">
       <c r="L1" s="15" t="s">
         <v>18</v>
       </c>
@@ -1185,7 +1197,7 @@
       <c r="BE1" s="13"/>
       <c r="BF1" s="13"/>
     </row>
-    <row r="2" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.25">
       <c r="G2" s="1" t="s">
         <v>60</v>
       </c>
@@ -1270,7 +1282,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1446,7 +1458,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>45368</v>
       </c>
@@ -1627,7 +1639,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45368</v>
       </c>
@@ -1808,7 +1820,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45368</v>
       </c>
@@ -1989,7 +2001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45368</v>
       </c>
@@ -2170,7 +2182,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45368</v>
       </c>
@@ -2351,7 +2363,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45368</v>
       </c>
@@ -2532,7 +2544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:60" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:60" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>45368</v>
       </c>
@@ -2713,7 +2725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>45369</v>
       </c>
@@ -2894,7 +2906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>45369</v>
       </c>
@@ -3075,7 +3087,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45369</v>
       </c>
@@ -3256,7 +3268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>45369</v>
       </c>
@@ -3437,7 +3449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>45369</v>
       </c>
@@ -3618,7 +3630,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>45369</v>
       </c>
@@ -3799,7 +3811,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:60" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:60" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>45369</v>
       </c>
@@ -3980,7 +3992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>45370</v>
       </c>
@@ -4143,7 +4155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>45370</v>
       </c>
@@ -4318,7 +4330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>45370</v>
       </c>
@@ -4499,7 +4511,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:60" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:60" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>45370</v>
       </c>
@@ -4680,7 +4692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>45371</v>
       </c>
@@ -4861,7 +4873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>45371</v>
       </c>
@@ -5042,7 +5054,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>45371</v>
       </c>
@@ -5223,7 +5235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>45371</v>
       </c>
@@ -5404,7 +5416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>45371</v>
       </c>
@@ -5585,7 +5597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>45371</v>
       </c>
@@ -5766,7 +5778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>45371</v>
       </c>
@@ -5947,7 +5959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:60" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:60" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>45371</v>
       </c>
@@ -6129,7 +6141,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>45372</v>
       </c>
@@ -6307,7 +6319,7 @@
         <v>31.5</v>
       </c>
     </row>
-    <row r="31" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>45372</v>
       </c>
@@ -6485,7 +6497,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>45372</v>
       </c>
@@ -6663,7 +6675,7 @@
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>45372</v>
       </c>
@@ -6841,7 +6853,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="34" spans="1:58" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:58" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>45372</v>
       </c>
@@ -7019,7 +7031,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="35" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>45373</v>
       </c>
@@ -7197,7 +7209,7 @@
         <v>27.1</v>
       </c>
     </row>
-    <row r="36" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>45373</v>
       </c>
@@ -7375,7 +7387,7 @@
         <v>35.6</v>
       </c>
     </row>
-    <row r="37" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>45373</v>
       </c>
@@ -7553,7 +7565,7 @@
         <v>36.4</v>
       </c>
     </row>
-    <row r="38" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>45373</v>
       </c>
@@ -7731,7 +7743,7 @@
         <v>38.4</v>
       </c>
     </row>
-    <row r="39" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>45373</v>
       </c>
@@ -7909,7 +7921,7 @@
         <v>40.799999999999997</v>
       </c>
     </row>
-    <row r="40" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>45373</v>
       </c>
@@ -8087,7 +8099,7 @@
         <v>39.799999999999997</v>
       </c>
     </row>
-    <row r="41" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>45373</v>
       </c>
@@ -8265,7 +8277,7 @@
         <v>33.700000000000003</v>
       </c>
     </row>
-    <row r="42" spans="1:58" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:58" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>45373</v>
       </c>
@@ -8443,7 +8455,7 @@
         <v>30.7</v>
       </c>
     </row>
-    <row r="43" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>45374</v>
       </c>
@@ -8621,7 +8633,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="44" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>45374</v>
       </c>
@@ -8799,7 +8811,7 @@
         <v>30.6</v>
       </c>
     </row>
-    <row r="45" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>45374</v>
       </c>
@@ -8977,7 +8989,7 @@
         <v>34.200000000000003</v>
       </c>
     </row>
-    <row r="46" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>45374</v>
       </c>
@@ -9155,7 +9167,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>45374</v>
       </c>
@@ -9333,7 +9345,7 @@
         <v>46.6</v>
       </c>
     </row>
-    <row r="48" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>45374</v>
       </c>
@@ -9511,7 +9523,7 @@
         <v>43.8</v>
       </c>
     </row>
-    <row r="49" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>45374</v>
       </c>
@@ -9689,7 +9701,7 @@
         <v>37.1</v>
       </c>
     </row>
-    <row r="50" spans="1:58" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:58" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
         <v>45374</v>
       </c>
@@ -9867,7 +9879,7 @@
         <v>30.7</v>
       </c>
     </row>
-    <row r="51" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>45375</v>
       </c>
@@ -10045,7 +10057,7 @@
         <v>27.7</v>
       </c>
     </row>
-    <row r="52" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>45375</v>
       </c>
@@ -10223,7 +10235,7 @@
         <v>25.3</v>
       </c>
     </row>
-    <row r="53" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>45375</v>
       </c>
@@ -10401,7 +10413,7 @@
         <v>24.4</v>
       </c>
     </row>
-    <row r="54" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>45375</v>
       </c>
@@ -10579,7 +10591,7 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="55" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>45375</v>
       </c>
@@ -10757,7 +10769,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="56" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>45375</v>
       </c>
@@ -10935,7 +10947,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>45375</v>
       </c>
@@ -11113,7 +11125,7 @@
         <v>25.2</v>
       </c>
     </row>
-    <row r="58" spans="1:58" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:58" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7">
         <v>45375</v>
       </c>
@@ -11291,7 +11303,7 @@
         <v>26.7</v>
       </c>
     </row>
-    <row r="59" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>45376</v>
       </c>
@@ -11469,7 +11481,7 @@
         <v>28.2</v>
       </c>
     </row>
-    <row r="60" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>45376</v>
       </c>
@@ -11647,7 +11659,7 @@
         <v>33.200000000000003</v>
       </c>
     </row>
-    <row r="61" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>45376</v>
       </c>
@@ -11825,7 +11837,7 @@
         <v>32.799999999999997</v>
       </c>
     </row>
-    <row r="62" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>45376</v>
       </c>
@@ -12003,7 +12015,7 @@
         <v>38.299999999999997</v>
       </c>
     </row>
-    <row r="63" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>45376</v>
       </c>
@@ -12181,7 +12193,7 @@
         <v>37.4</v>
       </c>
     </row>
-    <row r="64" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>45376</v>
       </c>
@@ -12359,7 +12371,7 @@
         <v>38.4</v>
       </c>
     </row>
-    <row r="65" spans="1:58" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:58" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="7">
         <v>45376</v>
       </c>
@@ -12537,7 +12549,7 @@
         <v>39.4</v>
       </c>
     </row>
-    <row r="66" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>45377</v>
       </c>
@@ -12715,7 +12727,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="67" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>45377</v>
       </c>
@@ -12893,7 +12905,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>45377</v>
       </c>
@@ -13071,7 +13083,7 @@
         <v>23.7</v>
       </c>
     </row>
-    <row r="69" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>45377</v>
       </c>
@@ -13249,7 +13261,7 @@
         <v>32.200000000000003</v>
       </c>
     </row>
-    <row r="70" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>45377</v>
       </c>
@@ -13427,7 +13439,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="71" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>45377</v>
       </c>
@@ -13605,7 +13617,7 @@
         <v>39.5</v>
       </c>
     </row>
-    <row r="72" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>45377</v>
       </c>
@@ -13783,7 +13795,7 @@
         <v>40.799999999999997</v>
       </c>
     </row>
-    <row r="73" spans="1:58" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:58" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="7">
         <v>45377</v>
       </c>
@@ -13961,7 +13973,7 @@
         <v>38.200000000000003</v>
       </c>
     </row>
-    <row r="74" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>45378</v>
       </c>
@@ -14139,7 +14151,7 @@
         <v>39.799999999999997</v>
       </c>
     </row>
-    <row r="75" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>45378</v>
       </c>
@@ -14317,7 +14329,7 @@
         <v>33.1</v>
       </c>
     </row>
-    <row r="76" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>45378</v>
       </c>
@@ -14495,7 +14507,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="77" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>45378</v>
       </c>
@@ -14673,7 +14685,7 @@
         <v>28.9</v>
       </c>
     </row>
-    <row r="78" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>45378</v>
       </c>
@@ -14851,7 +14863,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="79" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>45378</v>
       </c>
@@ -15029,7 +15041,7 @@
         <v>25.2</v>
       </c>
     </row>
-    <row r="80" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>45378</v>
       </c>
@@ -15207,7 +15219,7 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="81" spans="1:58" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:58" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="7">
         <v>45378</v>
       </c>
@@ -15385,7 +15397,7 @@
         <v>23.3</v>
       </c>
     </row>
-    <row r="82" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>45379</v>
       </c>
@@ -15563,7 +15575,7 @@
         <v>33.1</v>
       </c>
     </row>
-    <row r="83" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>45379</v>
       </c>
@@ -15741,7 +15753,7 @@
         <v>35.1</v>
       </c>
     </row>
-    <row r="84" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>45379</v>
       </c>
@@ -15919,7 +15931,7 @@
         <v>38.299999999999997</v>
       </c>
     </row>
-    <row r="85" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>45379</v>
       </c>
@@ -16097,7 +16109,7 @@
         <v>43.1</v>
       </c>
     </row>
-    <row r="86" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>45379</v>
       </c>
@@ -16275,7 +16287,7 @@
         <v>43.5</v>
       </c>
     </row>
-    <row r="87" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>45379</v>
       </c>
@@ -16453,7 +16465,7 @@
         <v>44.8</v>
       </c>
     </row>
-    <row r="88" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>45379</v>
       </c>
@@ -16631,7 +16643,7 @@
         <v>45.6</v>
       </c>
     </row>
-    <row r="89" spans="1:58" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:58" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="7">
         <v>45379</v>
       </c>
@@ -16809,7 +16821,7 @@
         <v>44.9</v>
       </c>
     </row>
-    <row r="90" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>45380</v>
       </c>
@@ -16987,7 +16999,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>45380</v>
       </c>
@@ -17165,7 +17177,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="92" spans="1:58" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:58" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="7">
         <v>45380</v>
       </c>
@@ -17343,7 +17355,7 @@
         <v>33.9</v>
       </c>
     </row>
-    <row r="93" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>45381</v>
       </c>
@@ -17521,7 +17533,7 @@
         <v>21.3</v>
       </c>
     </row>
-    <row r="94" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>45381</v>
       </c>
@@ -17699,7 +17711,7 @@
         <v>28.4</v>
       </c>
     </row>
-    <row r="95" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>45381</v>
       </c>
@@ -17877,7 +17889,7 @@
         <v>40.299999999999997</v>
       </c>
     </row>
-    <row r="96" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>45381</v>
       </c>
@@ -18055,7 +18067,7 @@
         <v>44.9</v>
       </c>
     </row>
-    <row r="97" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>45381</v>
       </c>
@@ -18233,7 +18245,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="98" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>45381</v>
       </c>
@@ -18411,7 +18423,7 @@
         <v>47.8</v>
       </c>
     </row>
-    <row r="99" spans="1:58" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:58" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="7">
         <v>45381</v>
       </c>
@@ -18589,7 +18601,7 @@
         <v>47.2</v>
       </c>
     </row>
-    <row r="100" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>45382</v>
       </c>
@@ -18767,7 +18779,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="101" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>45382</v>
       </c>
@@ -18945,7 +18957,7 @@
         <v>42.4</v>
       </c>
     </row>
-    <row r="102" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>45382</v>
       </c>
@@ -19123,7 +19135,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="103" spans="1:58" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:58" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="7">
         <v>45382</v>
       </c>
@@ -19301,7 +19313,7 @@
         <v>38.299999999999997</v>
       </c>
     </row>
-    <row r="104" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>45383</v>
       </c>
@@ -19479,7 +19491,7 @@
         <v>35.200000000000003</v>
       </c>
     </row>
-    <row r="105" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>45383</v>
       </c>
@@ -19657,7 +19669,7 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="106" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>45383</v>
       </c>
@@ -19835,7 +19847,7 @@
         <v>30.3</v>
       </c>
     </row>
-    <row r="107" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>45383</v>
       </c>
@@ -20013,7 +20025,7 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="108" spans="1:58" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:58" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="7">
         <v>45383</v>
       </c>
@@ -20191,7 +20203,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="109" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>45384</v>
       </c>
@@ -20369,7 +20381,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="110" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>45384</v>
       </c>
@@ -20547,7 +20559,7 @@
         <v>26.9</v>
       </c>
     </row>
-    <row r="111" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>45384</v>
       </c>
@@ -20725,7 +20737,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="112" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>45384</v>
       </c>
@@ -20903,7 +20915,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="113" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>45384</v>
       </c>
@@ -21081,7 +21093,7 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="114" spans="1:58" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:58" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="7">
         <v>45384</v>
       </c>
@@ -21259,7 +21271,7 @@
         <v>24.4</v>
       </c>
     </row>
-    <row r="115" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>45385</v>
       </c>
@@ -21437,7 +21449,7 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="116" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>45385</v>
       </c>
@@ -21615,7 +21627,7 @@
         <v>26.4</v>
       </c>
     </row>
-    <row r="117" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>45385</v>
       </c>
@@ -21793,7 +21805,7 @@
         <v>28.2</v>
       </c>
     </row>
-    <row r="118" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>45385</v>
       </c>
@@ -21971,7 +21983,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="119" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>45385</v>
       </c>
@@ -22149,7 +22161,7 @@
         <v>34.799999999999997</v>
       </c>
     </row>
-    <row r="120" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>45385</v>
       </c>
@@ -22327,7 +22339,7 @@
         <v>36.1</v>
       </c>
     </row>
-    <row r="121" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>45385</v>
       </c>
@@ -22505,7 +22517,7 @@
         <v>38.700000000000003</v>
       </c>
     </row>
-    <row r="122" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>45385</v>
       </c>
@@ -22683,7 +22695,7 @@
         <v>39.5</v>
       </c>
     </row>
-    <row r="123" spans="1:58" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:58" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="7">
         <v>45385</v>
       </c>
@@ -22861,7 +22873,7 @@
         <v>42.2</v>
       </c>
     </row>
-    <row r="124" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>45386</v>
       </c>
@@ -23039,7 +23051,7 @@
         <v>45.3</v>
       </c>
     </row>
-    <row r="125" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>45386</v>
       </c>
@@ -23217,7 +23229,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="126" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>45386</v>
       </c>
@@ -23395,7 +23407,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="127" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>45386</v>
       </c>
@@ -23573,7 +23585,7 @@
         <v>49.3</v>
       </c>
     </row>
-    <row r="128" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>45386</v>
       </c>
@@ -23751,7 +23763,7 @@
         <v>51.3</v>
       </c>
     </row>
-    <row r="129" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>45386</v>
       </c>
@@ -23929,7 +23941,7 @@
         <v>48.6</v>
       </c>
     </row>
-    <row r="130" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>45386</v>
       </c>
@@ -24107,7 +24119,7 @@
         <v>38.6</v>
       </c>
     </row>
-    <row r="131" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>45386</v>
       </c>
@@ -24304,12 +24316,12 @@
   <dimension ref="B4:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:D11"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>203</v>
       </c>
@@ -24317,7 +24329,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>1</v>
       </c>
@@ -24328,7 +24340,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>2</v>
       </c>
@@ -24339,7 +24351,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>3</v>
       </c>
@@ -24350,7 +24362,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>4</v>
       </c>
@@ -24361,7 +24373,7 @@
         <v>2623</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>5</v>
       </c>
@@ -24372,7 +24384,7 @@
         <v>3100</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>6</v>
       </c>
@@ -24383,7 +24395,7 @@
         <v>3700</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>7</v>
       </c>
@@ -24392,6 +24404,4533 @@
       </c>
       <c r="D11">
         <v>4220</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A63F885-C1BC-4291-80C6-C288CA3FB759}">
+  <dimension ref="A1:K129"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>45368</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1">
+        <v>140</v>
+      </c>
+      <c r="G2" s="1">
+        <v>212</v>
+      </c>
+      <c r="H2" s="1">
+        <v>200</v>
+      </c>
+      <c r="I2" s="4">
+        <v>-3.2</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0.94</v>
+      </c>
+      <c r="K2" s="6">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>45368</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>150</v>
+      </c>
+      <c r="G3" s="1">
+        <v>355</v>
+      </c>
+      <c r="H3" s="1">
+        <v>353</v>
+      </c>
+      <c r="I3" s="4">
+        <v>-3.5</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0.91</v>
+      </c>
+      <c r="K3" s="6">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>45368</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>150</v>
+      </c>
+      <c r="G4" s="1">
+        <v>355</v>
+      </c>
+      <c r="H4" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="I4" s="4">
+        <v>-3.2</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0.91</v>
+      </c>
+      <c r="K4" s="6">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>45368</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>150</v>
+      </c>
+      <c r="G5" s="1">
+        <v>352</v>
+      </c>
+      <c r="H5" s="1">
+        <v>6</v>
+      </c>
+      <c r="I5" s="4">
+        <v>-3.3</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="K5" s="6">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>45368</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>150</v>
+      </c>
+      <c r="G6" s="1">
+        <v>342</v>
+      </c>
+      <c r="H6" s="1">
+        <v>345</v>
+      </c>
+      <c r="I6" s="4">
+        <v>-5.8</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="K6" s="6">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>45368</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="1">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>140</v>
+      </c>
+      <c r="G7" s="1">
+        <v>75</v>
+      </c>
+      <c r="H7" s="1">
+        <v>74</v>
+      </c>
+      <c r="I7" s="4">
+        <v>-5.8</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.37</v>
+      </c>
+      <c r="K7" s="6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>45368</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="8">
+        <v>7</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="8">
+        <v>2</v>
+      </c>
+      <c r="F8" s="8">
+        <v>140</v>
+      </c>
+      <c r="G8" s="8">
+        <v>154</v>
+      </c>
+      <c r="H8" s="8">
+        <v>168</v>
+      </c>
+      <c r="I8" s="9">
+        <v>-6.8</v>
+      </c>
+      <c r="J8" s="9">
+        <v>0.16</v>
+      </c>
+      <c r="K8" s="11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>45369</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="1">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1">
+        <v>120</v>
+      </c>
+      <c r="G9" s="1">
+        <v>132</v>
+      </c>
+      <c r="H9" s="1">
+        <v>157</v>
+      </c>
+      <c r="I9" s="4">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="J9" s="4">
+        <v>-0.2</v>
+      </c>
+      <c r="K9" s="6">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>45369</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="1">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2</v>
+      </c>
+      <c r="F10" s="1">
+        <v>130</v>
+      </c>
+      <c r="G10" s="1">
+        <v>115</v>
+      </c>
+      <c r="H10" s="1">
+        <v>127</v>
+      </c>
+      <c r="I10" s="4">
+        <v>-3.2</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="K10" s="6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>45369</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="1">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2</v>
+      </c>
+      <c r="F11" s="1">
+        <v>140</v>
+      </c>
+      <c r="G11" s="1">
+        <v>131</v>
+      </c>
+      <c r="H11" s="1">
+        <v>131</v>
+      </c>
+      <c r="I11" s="4">
+        <v>-2.7</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="K11" s="6">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>45369</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="1">
+        <v>11</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2</v>
+      </c>
+      <c r="F12" s="1">
+        <v>140</v>
+      </c>
+      <c r="G12" s="1">
+        <v>105</v>
+      </c>
+      <c r="H12" s="1">
+        <v>105</v>
+      </c>
+      <c r="I12" s="4">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="K12" s="6">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>45369</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="1">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2</v>
+      </c>
+      <c r="F13" s="1">
+        <v>150</v>
+      </c>
+      <c r="G13" s="1">
+        <v>108</v>
+      </c>
+      <c r="H13" s="1">
+        <v>105</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="K13" s="6">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>45369</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="1">
+        <v>13</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2</v>
+      </c>
+      <c r="F14" s="1">
+        <v>150</v>
+      </c>
+      <c r="G14" s="1">
+        <v>176</v>
+      </c>
+      <c r="H14" s="1">
+        <v>167</v>
+      </c>
+      <c r="I14" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="K14" s="6">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>45369</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="8">
+        <v>14</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="8">
+        <v>2</v>
+      </c>
+      <c r="F15" s="8">
+        <v>140</v>
+      </c>
+      <c r="G15" s="8">
+        <v>218</v>
+      </c>
+      <c r="H15" s="8">
+        <v>186</v>
+      </c>
+      <c r="I15" s="9">
+        <v>1.6</v>
+      </c>
+      <c r="J15" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="K15" s="11">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>45370</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="1">
+        <v>15</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2</v>
+      </c>
+      <c r="F16" s="1">
+        <v>80</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="J16" s="4">
+        <v>-0.7</v>
+      </c>
+      <c r="K16" s="6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>45370</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="1">
+        <v>16</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2</v>
+      </c>
+      <c r="F17" s="1">
+        <v>100</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="K17" s="6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>45370</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="1">
+        <v>17</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2</v>
+      </c>
+      <c r="F18" s="1">
+        <v>130</v>
+      </c>
+      <c r="G18" s="1">
+        <v>90</v>
+      </c>
+      <c r="H18" s="1">
+        <v>96</v>
+      </c>
+      <c r="I18" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="K18" s="6">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>45370</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="8">
+        <v>18</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="8">
+        <v>2</v>
+      </c>
+      <c r="F19" s="8">
+        <v>130</v>
+      </c>
+      <c r="G19" s="8">
+        <v>90</v>
+      </c>
+      <c r="H19" s="8">
+        <v>95</v>
+      </c>
+      <c r="I19" s="9">
+        <v>1.7</v>
+      </c>
+      <c r="J19" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="K19" s="11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>45371</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="1">
+        <v>19</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2</v>
+      </c>
+      <c r="F20" s="1">
+        <v>130</v>
+      </c>
+      <c r="G20" s="1">
+        <v>200</v>
+      </c>
+      <c r="H20" s="1">
+        <v>205</v>
+      </c>
+      <c r="I20" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="J20" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="K20" s="6">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>45371</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="1">
+        <v>20</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2</v>
+      </c>
+      <c r="F21" s="1">
+        <v>120</v>
+      </c>
+      <c r="G21" s="1">
+        <v>258</v>
+      </c>
+      <c r="H21" s="1">
+        <v>245</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="J21" s="4">
+        <v>-0.1</v>
+      </c>
+      <c r="K21" s="6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>45371</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="1">
+        <v>21</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2</v>
+      </c>
+      <c r="F22" s="1">
+        <v>120</v>
+      </c>
+      <c r="G22" s="1">
+        <v>238</v>
+      </c>
+      <c r="H22" s="1">
+        <v>237</v>
+      </c>
+      <c r="I22" s="4">
+        <v>0</v>
+      </c>
+      <c r="J22" s="4">
+        <v>-0.6</v>
+      </c>
+      <c r="K22" s="6">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>45371</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="1">
+        <v>22</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2</v>
+      </c>
+      <c r="F23" s="1">
+        <v>110</v>
+      </c>
+      <c r="G23" s="1">
+        <v>277</v>
+      </c>
+      <c r="H23" s="1">
+        <v>265</v>
+      </c>
+      <c r="I23" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J23" s="4">
+        <v>-1.2</v>
+      </c>
+      <c r="K23" s="6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>45371</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="1">
+        <v>23</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="1">
+        <v>2</v>
+      </c>
+      <c r="F24" s="1">
+        <v>120</v>
+      </c>
+      <c r="G24" s="1">
+        <v>263</v>
+      </c>
+      <c r="H24" s="1">
+        <v>254</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="J24" s="4">
+        <v>-0.8</v>
+      </c>
+      <c r="K24" s="6">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>45371</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="1">
+        <v>24</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2</v>
+      </c>
+      <c r="F25" s="1">
+        <v>120</v>
+      </c>
+      <c r="G25" s="1">
+        <v>274</v>
+      </c>
+      <c r="H25" s="1">
+        <v>267</v>
+      </c>
+      <c r="I25" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="J25" s="4">
+        <v>-0.8</v>
+      </c>
+      <c r="K25" s="6">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>45371</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="1">
+        <v>25</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2</v>
+      </c>
+      <c r="F26" s="1">
+        <v>110</v>
+      </c>
+      <c r="G26" s="1">
+        <v>245</v>
+      </c>
+      <c r="H26" s="1">
+        <v>218</v>
+      </c>
+      <c r="I26" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="J26" s="4">
+        <v>-0.4</v>
+      </c>
+      <c r="K26" s="6">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
+        <v>45371</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="8">
+        <v>26</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="8">
+        <v>2</v>
+      </c>
+      <c r="F27" s="8">
+        <v>120</v>
+      </c>
+      <c r="G27" s="8">
+        <v>193</v>
+      </c>
+      <c r="H27" s="8">
+        <v>185</v>
+      </c>
+      <c r="I27" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="J27" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="K27" s="11">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>45372</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="1">
+        <v>27</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="1">
+        <v>2</v>
+      </c>
+      <c r="F28" s="1">
+        <v>140</v>
+      </c>
+      <c r="G28" s="1">
+        <v>123</v>
+      </c>
+      <c r="H28" s="1">
+        <v>148</v>
+      </c>
+      <c r="I28" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J28" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="K28" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>45372</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="1">
+        <v>28</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E29" s="1">
+        <v>2</v>
+      </c>
+      <c r="F29" s="1">
+        <v>80</v>
+      </c>
+      <c r="G29" s="1">
+        <v>141</v>
+      </c>
+      <c r="H29" s="1">
+        <v>152</v>
+      </c>
+      <c r="I29" s="4">
+        <v>2.6</v>
+      </c>
+      <c r="J29" s="4">
+        <v>-0.4</v>
+      </c>
+      <c r="K29" s="6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>45372</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="1">
+        <v>29</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="1">
+        <v>2</v>
+      </c>
+      <c r="F30" s="1">
+        <v>80</v>
+      </c>
+      <c r="G30" s="1">
+        <v>238</v>
+      </c>
+      <c r="H30" s="1">
+        <v>203</v>
+      </c>
+      <c r="I30" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="J30" s="4">
+        <v>-0.7</v>
+      </c>
+      <c r="K30" s="6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>45372</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="1">
+        <v>30</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" s="1">
+        <v>2</v>
+      </c>
+      <c r="F31" s="1">
+        <v>80</v>
+      </c>
+      <c r="G31" s="1">
+        <v>222</v>
+      </c>
+      <c r="H31" s="1">
+        <v>187</v>
+      </c>
+      <c r="I31" s="4">
+        <v>3.1</v>
+      </c>
+      <c r="J31" s="4">
+        <v>-0.8</v>
+      </c>
+      <c r="K31" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="7">
+        <v>45372</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="8">
+        <v>31</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E32" s="8">
+        <v>2</v>
+      </c>
+      <c r="F32" s="8">
+        <v>100</v>
+      </c>
+      <c r="G32" s="8">
+        <v>175</v>
+      </c>
+      <c r="H32" s="8">
+        <v>165</v>
+      </c>
+      <c r="I32" s="9">
+        <v>3.1</v>
+      </c>
+      <c r="J32" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="K32" s="11">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>45373</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="1">
+        <v>32</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E33" s="1">
+        <v>2</v>
+      </c>
+      <c r="F33" s="1">
+        <v>120</v>
+      </c>
+      <c r="G33" s="1">
+        <v>227</v>
+      </c>
+      <c r="H33" s="1">
+        <v>237</v>
+      </c>
+      <c r="I33" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J33" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="K33" s="6">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>45373</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="1">
+        <v>33</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E34" s="1">
+        <v>2</v>
+      </c>
+      <c r="F34" s="1">
+        <v>140</v>
+      </c>
+      <c r="G34" s="1">
+        <v>294</v>
+      </c>
+      <c r="H34" s="1">
+        <v>278</v>
+      </c>
+      <c r="I34" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="J34" s="4">
+        <v>1</v>
+      </c>
+      <c r="K34" s="6">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>45373</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="1">
+        <v>34</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E35" s="1">
+        <v>2</v>
+      </c>
+      <c r="F35" s="1">
+        <v>140</v>
+      </c>
+      <c r="G35" s="1">
+        <v>249</v>
+      </c>
+      <c r="H35" s="1">
+        <v>227</v>
+      </c>
+      <c r="I35" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="J35" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="K35" s="6">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>45373</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="1">
+        <v>35</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E36" s="1">
+        <v>2</v>
+      </c>
+      <c r="F36" s="1">
+        <v>140</v>
+      </c>
+      <c r="G36" s="1">
+        <v>265</v>
+      </c>
+      <c r="H36" s="1">
+        <v>274</v>
+      </c>
+      <c r="I36" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="J36" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="K36" s="6">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>45373</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="1">
+        <v>36</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E37" s="1">
+        <v>2</v>
+      </c>
+      <c r="F37" s="1">
+        <v>160</v>
+      </c>
+      <c r="G37" s="1">
+        <v>286</v>
+      </c>
+      <c r="H37" s="1">
+        <v>178</v>
+      </c>
+      <c r="I37" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="J37" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K37" s="6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>45373</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="1">
+        <v>37</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E38" s="1">
+        <v>2</v>
+      </c>
+      <c r="F38" s="1">
+        <v>160</v>
+      </c>
+      <c r="G38" s="1">
+        <v>63</v>
+      </c>
+      <c r="H38" s="1">
+        <v>60</v>
+      </c>
+      <c r="I38" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="J38" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="K38" s="6">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>45373</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" s="1">
+        <v>38</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E39" s="1">
+        <v>2</v>
+      </c>
+      <c r="F39" s="1">
+        <v>140</v>
+      </c>
+      <c r="G39" s="1">
+        <v>91</v>
+      </c>
+      <c r="H39" s="1">
+        <v>89</v>
+      </c>
+      <c r="I39" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J39" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="K39" s="6">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="7">
+        <v>45373</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" s="8">
+        <v>39</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E40" s="8">
+        <v>2</v>
+      </c>
+      <c r="F40" s="8">
+        <v>130</v>
+      </c>
+      <c r="G40" s="8">
+        <v>51</v>
+      </c>
+      <c r="H40" s="8">
+        <v>66</v>
+      </c>
+      <c r="I40" s="9">
+        <v>1</v>
+      </c>
+      <c r="J40" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="K40" s="11">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>45374</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" s="1">
+        <v>40</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E41" s="1">
+        <v>2</v>
+      </c>
+      <c r="F41" s="1">
+        <v>80</v>
+      </c>
+      <c r="G41" s="1">
+        <v>42</v>
+      </c>
+      <c r="H41" s="1">
+        <v>29</v>
+      </c>
+      <c r="I41" s="4">
+        <v>0</v>
+      </c>
+      <c r="J41" s="4">
+        <v>-0.4</v>
+      </c>
+      <c r="K41" s="6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>45374</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" s="1">
+        <v>41</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E42" s="1">
+        <v>2</v>
+      </c>
+      <c r="F42" s="1">
+        <v>130</v>
+      </c>
+      <c r="G42" s="1">
+        <v>55</v>
+      </c>
+      <c r="H42" s="1">
+        <v>43</v>
+      </c>
+      <c r="I42" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="J42" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="K42" s="6">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>45374</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C43" s="1">
+        <v>42</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E43" s="1">
+        <v>2</v>
+      </c>
+      <c r="F43" s="1">
+        <v>140</v>
+      </c>
+      <c r="G43" s="1">
+        <v>10</v>
+      </c>
+      <c r="H43" s="1">
+        <v>32</v>
+      </c>
+      <c r="I43" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="J43" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="K43" s="6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>45374</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C44" s="1">
+        <v>43</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E44" s="1">
+        <v>2</v>
+      </c>
+      <c r="F44" s="1">
+        <v>180</v>
+      </c>
+      <c r="G44" s="1">
+        <v>35</v>
+      </c>
+      <c r="H44" s="1">
+        <v>29</v>
+      </c>
+      <c r="I44" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="J44" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="K44" s="6">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>45374</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45" s="1">
+        <v>44</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E45" s="1">
+        <v>2</v>
+      </c>
+      <c r="F45" s="1">
+        <v>180</v>
+      </c>
+      <c r="G45" s="1">
+        <v>35</v>
+      </c>
+      <c r="H45" s="1">
+        <v>40</v>
+      </c>
+      <c r="I45" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="J45" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="K45" s="6">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>45374</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C46" s="1">
+        <v>45</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E46" s="1">
+        <v>2</v>
+      </c>
+      <c r="F46" s="1">
+        <v>180</v>
+      </c>
+      <c r="G46" s="1">
+        <v>34</v>
+      </c>
+      <c r="H46" s="1">
+        <v>39</v>
+      </c>
+      <c r="I46" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="J46" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="K46" s="6">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>45374</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C47" s="1">
+        <v>46</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E47" s="1">
+        <v>2</v>
+      </c>
+      <c r="F47" s="1">
+        <v>150</v>
+      </c>
+      <c r="G47" s="1">
+        <v>36</v>
+      </c>
+      <c r="H47" s="1">
+        <v>44</v>
+      </c>
+      <c r="I47" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="J47" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="K47" s="6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="7">
+        <v>45374</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C48" s="8">
+        <v>47</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E48" s="8">
+        <v>2</v>
+      </c>
+      <c r="F48" s="8">
+        <v>120</v>
+      </c>
+      <c r="G48" s="8">
+        <v>274</v>
+      </c>
+      <c r="H48" s="8">
+        <v>270</v>
+      </c>
+      <c r="I48" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="J48" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="K48" s="11">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>45375</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C49" s="1">
+        <v>48</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E49" s="1">
+        <v>2</v>
+      </c>
+      <c r="F49" s="1">
+        <v>120</v>
+      </c>
+      <c r="G49" s="1">
+        <v>8</v>
+      </c>
+      <c r="H49" s="1">
+        <v>16</v>
+      </c>
+      <c r="I49" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="J49" s="4">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="K49" s="6">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>45375</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C50" s="1">
+        <v>49</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E50" s="1">
+        <v>2</v>
+      </c>
+      <c r="F50" s="1">
+        <v>110</v>
+      </c>
+      <c r="G50" s="1">
+        <v>9</v>
+      </c>
+      <c r="H50" s="1">
+        <v>7</v>
+      </c>
+      <c r="I50" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="J50" s="4">
+        <v>-0.9</v>
+      </c>
+      <c r="K50" s="6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>45375</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C51" s="1">
+        <v>50</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E51" s="1">
+        <v>2</v>
+      </c>
+      <c r="F51" s="1">
+        <v>110</v>
+      </c>
+      <c r="G51" s="1">
+        <v>10</v>
+      </c>
+      <c r="H51" s="1">
+        <v>358</v>
+      </c>
+      <c r="I51" s="4">
+        <v>1</v>
+      </c>
+      <c r="J51" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="K51" s="6">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>45375</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52" s="1">
+        <v>51</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E52" s="1">
+        <v>2</v>
+      </c>
+      <c r="F52" s="1">
+        <v>110</v>
+      </c>
+      <c r="G52" s="1">
+        <v>348</v>
+      </c>
+      <c r="H52" s="1">
+        <v>333</v>
+      </c>
+      <c r="I52" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J52" s="4">
+        <v>-0.6</v>
+      </c>
+      <c r="K52" s="6">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>45375</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C53" s="1">
+        <v>52</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E53" s="1">
+        <v>2</v>
+      </c>
+      <c r="F53" s="1">
+        <v>100</v>
+      </c>
+      <c r="G53" s="1">
+        <v>255</v>
+      </c>
+      <c r="H53" s="1">
+        <v>263</v>
+      </c>
+      <c r="I53" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="J53" s="4">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="K53" s="6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>45375</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C54" s="1">
+        <v>53</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E54" s="1">
+        <v>2</v>
+      </c>
+      <c r="F54" s="1">
+        <v>100</v>
+      </c>
+      <c r="G54" s="1">
+        <v>197</v>
+      </c>
+      <c r="H54" s="1">
+        <v>196</v>
+      </c>
+      <c r="I54" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J54" s="4">
+        <v>-1.4</v>
+      </c>
+      <c r="K54" s="6">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>45375</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C55" s="1">
+        <v>54</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E55" s="1">
+        <v>2</v>
+      </c>
+      <c r="F55" s="1">
+        <v>100</v>
+      </c>
+      <c r="G55" s="1">
+        <v>196</v>
+      </c>
+      <c r="H55" s="1">
+        <v>185</v>
+      </c>
+      <c r="I55" s="4">
+        <v>-0.1</v>
+      </c>
+      <c r="J55" s="4">
+        <v>-1.4</v>
+      </c>
+      <c r="K55" s="6">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="7">
+        <v>45375</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C56" s="8">
+        <v>55</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E56" s="8">
+        <v>2</v>
+      </c>
+      <c r="F56" s="8">
+        <v>100</v>
+      </c>
+      <c r="G56" s="8">
+        <v>192</v>
+      </c>
+      <c r="H56" s="8">
+        <v>181</v>
+      </c>
+      <c r="I56" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="J56" s="9">
+        <v>-0.6</v>
+      </c>
+      <c r="K56" s="11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>45376</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C57" s="1">
+        <v>56</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E57" s="1">
+        <v>2</v>
+      </c>
+      <c r="F57" s="1">
+        <v>120</v>
+      </c>
+      <c r="G57" s="1">
+        <v>290</v>
+      </c>
+      <c r="H57" s="1">
+        <v>299</v>
+      </c>
+      <c r="I57" s="4">
+        <v>-2</v>
+      </c>
+      <c r="J57" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="K57" s="6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>45376</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C58" s="1">
+        <v>57</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E58" s="1">
+        <v>2</v>
+      </c>
+      <c r="F58" s="1">
+        <v>140</v>
+      </c>
+      <c r="G58" s="1">
+        <v>312</v>
+      </c>
+      <c r="H58" s="1">
+        <v>306</v>
+      </c>
+      <c r="I58" s="4">
+        <v>-3.1</v>
+      </c>
+      <c r="J58" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K58" s="6">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>45376</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C59" s="1">
+        <v>58</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E59" s="1">
+        <v>2</v>
+      </c>
+      <c r="F59" s="1">
+        <v>140</v>
+      </c>
+      <c r="G59" s="1">
+        <v>328</v>
+      </c>
+      <c r="H59" s="1">
+        <v>316</v>
+      </c>
+      <c r="I59" s="4">
+        <v>-3</v>
+      </c>
+      <c r="J59" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="K59" s="6">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>45376</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C60" s="1">
+        <v>59</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E60" s="1">
+        <v>2</v>
+      </c>
+      <c r="F60" s="1">
+        <v>160</v>
+      </c>
+      <c r="G60" s="1">
+        <v>282</v>
+      </c>
+      <c r="H60" s="1">
+        <v>293</v>
+      </c>
+      <c r="I60" s="4">
+        <v>-4</v>
+      </c>
+      <c r="J60" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="K60" s="6">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>45376</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C61" s="1">
+        <v>60</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E61" s="1">
+        <v>2</v>
+      </c>
+      <c r="F61" s="1">
+        <v>160</v>
+      </c>
+      <c r="G61" s="1">
+        <v>272</v>
+      </c>
+      <c r="H61" s="1">
+        <v>289</v>
+      </c>
+      <c r="I61" s="4">
+        <v>-3.5</v>
+      </c>
+      <c r="J61" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="K61" s="6">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>45376</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C62" s="1">
+        <v>61</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E62" s="1">
+        <v>2</v>
+      </c>
+      <c r="F62" s="1">
+        <v>160</v>
+      </c>
+      <c r="G62" s="1">
+        <v>257</v>
+      </c>
+      <c r="H62" s="1">
+        <v>267</v>
+      </c>
+      <c r="I62" s="4">
+        <v>-3.8</v>
+      </c>
+      <c r="J62" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="K62" s="6">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="7">
+        <v>45376</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C63" s="8">
+        <v>62</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E63" s="8">
+        <v>2</v>
+      </c>
+      <c r="F63" s="8">
+        <v>160</v>
+      </c>
+      <c r="G63" s="8">
+        <v>269</v>
+      </c>
+      <c r="H63" s="8">
+        <v>273</v>
+      </c>
+      <c r="I63" s="9">
+        <v>-3.8</v>
+      </c>
+      <c r="J63" s="9">
+        <v>2</v>
+      </c>
+      <c r="K63" s="11">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>45377</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C64" s="1">
+        <v>63</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E64" s="1">
+        <v>2</v>
+      </c>
+      <c r="F64" s="1">
+        <v>150</v>
+      </c>
+      <c r="G64" s="1">
+        <v>329</v>
+      </c>
+      <c r="H64" s="1">
+        <v>322</v>
+      </c>
+      <c r="I64" s="4">
+        <v>-2.7</v>
+      </c>
+      <c r="J64" s="4">
+        <v>2</v>
+      </c>
+      <c r="K64" s="6">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>45377</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C65" s="1">
+        <v>64</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E65" s="1">
+        <v>2</v>
+      </c>
+      <c r="F65" s="1">
+        <v>80</v>
+      </c>
+      <c r="G65" s="1">
+        <v>265</v>
+      </c>
+      <c r="H65" s="1">
+        <v>260</v>
+      </c>
+      <c r="I65" s="4">
+        <v>-3.1</v>
+      </c>
+      <c r="J65" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="K65" s="6">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>45377</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C66" s="1">
+        <v>65</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E66" s="1">
+        <v>2</v>
+      </c>
+      <c r="F66" s="1">
+        <v>100</v>
+      </c>
+      <c r="G66" s="1">
+        <v>242</v>
+      </c>
+      <c r="H66" s="1">
+        <v>244</v>
+      </c>
+      <c r="I66" s="4">
+        <v>-0.1</v>
+      </c>
+      <c r="J66" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="K66" s="6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>45377</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C67" s="1">
+        <v>66</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E67" s="1">
+        <v>2</v>
+      </c>
+      <c r="F67" s="1">
+        <v>140</v>
+      </c>
+      <c r="G67" s="1">
+        <v>280</v>
+      </c>
+      <c r="H67" s="1">
+        <v>285</v>
+      </c>
+      <c r="I67" s="4">
+        <v>-0.1</v>
+      </c>
+      <c r="J67" s="4">
+        <v>2</v>
+      </c>
+      <c r="K67" s="6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>45377</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C68" s="1">
+        <v>67</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E68" s="1">
+        <v>2</v>
+      </c>
+      <c r="F68" s="1">
+        <v>150</v>
+      </c>
+      <c r="G68" s="1">
+        <v>26</v>
+      </c>
+      <c r="H68" s="1">
+        <v>22</v>
+      </c>
+      <c r="I68" s="4">
+        <v>-1.4</v>
+      </c>
+      <c r="J68" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="K68" s="6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>45377</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C69" s="1">
+        <v>68</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E69" s="1">
+        <v>2</v>
+      </c>
+      <c r="F69" s="1">
+        <v>150</v>
+      </c>
+      <c r="G69" s="1">
+        <v>46</v>
+      </c>
+      <c r="H69" s="1">
+        <v>47</v>
+      </c>
+      <c r="I69" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J69" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="K69" s="6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>45377</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C70" s="1">
+        <v>69</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E70" s="1">
+        <v>2</v>
+      </c>
+      <c r="F70" s="1">
+        <v>150</v>
+      </c>
+      <c r="G70" s="1">
+        <v>23</v>
+      </c>
+      <c r="H70" s="1">
+        <v>30</v>
+      </c>
+      <c r="I70" s="4">
+        <v>-0.9</v>
+      </c>
+      <c r="J70" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="K70" s="6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="7">
+        <v>45377</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C71" s="8">
+        <v>70</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E71" s="8">
+        <v>2</v>
+      </c>
+      <c r="F71" s="8">
+        <v>150</v>
+      </c>
+      <c r="G71" s="8">
+        <v>276</v>
+      </c>
+      <c r="H71" s="8">
+        <v>274</v>
+      </c>
+      <c r="I71" s="9">
+        <v>-0.7</v>
+      </c>
+      <c r="J71" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="K71" s="11">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>45378</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C72" s="1">
+        <v>71</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E72" s="1">
+        <v>2</v>
+      </c>
+      <c r="F72" s="1">
+        <v>150</v>
+      </c>
+      <c r="G72" s="1">
+        <v>198</v>
+      </c>
+      <c r="H72" s="1">
+        <v>198</v>
+      </c>
+      <c r="I72" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="J72" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="K72" s="6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>45378</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C73" s="1">
+        <v>72</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E73" s="1">
+        <v>2</v>
+      </c>
+      <c r="F73" s="1">
+        <v>140</v>
+      </c>
+      <c r="G73" s="1">
+        <v>228</v>
+      </c>
+      <c r="H73" s="1">
+        <v>220</v>
+      </c>
+      <c r="I73" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J73" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="K73" s="6">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>45378</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C74" s="1">
+        <v>73</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E74" s="1">
+        <v>2</v>
+      </c>
+      <c r="F74" s="1">
+        <v>140</v>
+      </c>
+      <c r="G74" s="1">
+        <v>43</v>
+      </c>
+      <c r="H74" s="1">
+        <v>51</v>
+      </c>
+      <c r="I74" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="J74" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="K74" s="6">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>45378</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C75" s="1">
+        <v>74</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E75" s="1">
+        <v>2</v>
+      </c>
+      <c r="F75" s="1">
+        <v>140</v>
+      </c>
+      <c r="G75" s="1">
+        <v>288</v>
+      </c>
+      <c r="H75" s="1">
+        <v>279</v>
+      </c>
+      <c r="I75" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="J75" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K75" s="6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>45378</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C76" s="1">
+        <v>75</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E76" s="1">
+        <v>2</v>
+      </c>
+      <c r="F76" s="1">
+        <v>120</v>
+      </c>
+      <c r="G76" s="1">
+        <v>271</v>
+      </c>
+      <c r="H76" s="1">
+        <v>274</v>
+      </c>
+      <c r="I76" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J76" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="K76" s="6">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>45378</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C77" s="1">
+        <v>76</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E77" s="1">
+        <v>2</v>
+      </c>
+      <c r="F77" s="1">
+        <v>110</v>
+      </c>
+      <c r="G77" s="1">
+        <v>283</v>
+      </c>
+      <c r="H77" s="1">
+        <v>283</v>
+      </c>
+      <c r="I77" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="J77" s="4">
+        <v>-0.7</v>
+      </c>
+      <c r="K77" s="6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>45378</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C78" s="1">
+        <v>77</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E78" s="1">
+        <v>2</v>
+      </c>
+      <c r="F78" s="1">
+        <v>110</v>
+      </c>
+      <c r="G78" s="1">
+        <v>269</v>
+      </c>
+      <c r="H78" s="1">
+        <v>273</v>
+      </c>
+      <c r="I78" s="4">
+        <v>-0.2</v>
+      </c>
+      <c r="J78" s="4">
+        <v>-1.5</v>
+      </c>
+      <c r="K78" s="6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="7">
+        <v>45378</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C79" s="8">
+        <v>78</v>
+      </c>
+      <c r="D79" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E79" s="8">
+        <v>2</v>
+      </c>
+      <c r="F79" s="8">
+        <v>110</v>
+      </c>
+      <c r="G79" s="8">
+        <v>273</v>
+      </c>
+      <c r="H79" s="8">
+        <v>271</v>
+      </c>
+      <c r="I79" s="9">
+        <v>-0.4</v>
+      </c>
+      <c r="J79" s="9">
+        <v>-1.4</v>
+      </c>
+      <c r="K79" s="11">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>45379</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C80" s="1">
+        <v>79</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E80" s="1">
+        <v>2</v>
+      </c>
+      <c r="F80" s="1">
+        <v>140</v>
+      </c>
+      <c r="G80" s="1">
+        <v>144</v>
+      </c>
+      <c r="H80" s="1">
+        <v>143</v>
+      </c>
+      <c r="I80" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J80" s="4">
+        <v>0.81</v>
+      </c>
+      <c r="K80" s="6">
+        <v>62.9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>45379</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C81" s="1">
+        <v>80</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E81" s="1">
+        <v>2</v>
+      </c>
+      <c r="F81" s="1">
+        <v>140</v>
+      </c>
+      <c r="G81" s="1">
+        <v>150</v>
+      </c>
+      <c r="H81" s="1">
+        <v>152</v>
+      </c>
+      <c r="I81" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J81" s="4">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="K81" s="6">
+        <v>66.8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>45379</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C82" s="1">
+        <v>81</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E82" s="1">
+        <v>2</v>
+      </c>
+      <c r="F82" s="1">
+        <v>150</v>
+      </c>
+      <c r="G82" s="1">
+        <v>139</v>
+      </c>
+      <c r="H82" s="1">
+        <v>143</v>
+      </c>
+      <c r="I82" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="J82" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="K82" s="6">
+        <v>73.8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>45379</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C83" s="1">
+        <v>82</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E83" s="1">
+        <v>2</v>
+      </c>
+      <c r="F83" s="1">
+        <v>170</v>
+      </c>
+      <c r="G83" s="1">
+        <v>138</v>
+      </c>
+      <c r="H83" s="1">
+        <v>137</v>
+      </c>
+      <c r="I83" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J83" s="4">
+        <v>1.34</v>
+      </c>
+      <c r="K83" s="6">
+        <v>80.400000000000006</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>45379</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C84" s="1">
+        <v>83</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E84" s="1">
+        <v>2</v>
+      </c>
+      <c r="F84" s="1">
+        <v>170</v>
+      </c>
+      <c r="G84" s="1">
+        <v>136</v>
+      </c>
+      <c r="H84" s="1">
+        <v>126</v>
+      </c>
+      <c r="I84" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J84" s="4">
+        <v>1.82</v>
+      </c>
+      <c r="K84" s="6">
+        <v>82.7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>45379</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C85" s="1">
+        <v>84</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E85" s="1">
+        <v>2</v>
+      </c>
+      <c r="F85" s="1">
+        <v>170</v>
+      </c>
+      <c r="G85" s="1">
+        <v>141</v>
+      </c>
+      <c r="H85" s="1">
+        <v>127</v>
+      </c>
+      <c r="I85" s="4">
+        <v>2</v>
+      </c>
+      <c r="J85" s="4">
+        <v>1.96</v>
+      </c>
+      <c r="K85" s="6">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>45379</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C86" s="1">
+        <v>85</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E86" s="1">
+        <v>2</v>
+      </c>
+      <c r="F86" s="1">
+        <v>170</v>
+      </c>
+      <c r="G86" s="1">
+        <v>116</v>
+      </c>
+      <c r="H86" s="1">
+        <v>112</v>
+      </c>
+      <c r="I86" s="4">
+        <v>2.6</v>
+      </c>
+      <c r="J86" s="4">
+        <v>1.97</v>
+      </c>
+      <c r="K86" s="6">
+        <v>84.8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="7">
+        <v>45379</v>
+      </c>
+      <c r="B87" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C87" s="8">
+        <v>86</v>
+      </c>
+      <c r="D87" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="E87" s="8">
+        <v>2</v>
+      </c>
+      <c r="F87" s="8">
+        <v>180</v>
+      </c>
+      <c r="G87" s="8">
+        <v>130</v>
+      </c>
+      <c r="H87" s="8">
+        <v>142</v>
+      </c>
+      <c r="I87" s="9">
+        <v>3.1</v>
+      </c>
+      <c r="J87" s="9">
+        <v>2.06</v>
+      </c>
+      <c r="K87" s="11">
+        <v>84.9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>45380</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C88" s="1">
+        <v>87</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E88" s="1">
+        <v>2</v>
+      </c>
+      <c r="F88" s="1">
+        <v>80</v>
+      </c>
+      <c r="G88" s="1">
+        <v>264</v>
+      </c>
+      <c r="H88" s="1">
+        <v>263</v>
+      </c>
+      <c r="I88" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J88" s="4">
+        <v>1.39</v>
+      </c>
+      <c r="K88" s="6">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <v>45380</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C89" s="1">
+        <v>88</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E89" s="1">
+        <v>2</v>
+      </c>
+      <c r="F89" s="1">
+        <v>80</v>
+      </c>
+      <c r="G89" s="1">
+        <v>300</v>
+      </c>
+      <c r="H89" s="1">
+        <v>304</v>
+      </c>
+      <c r="I89" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J89" s="4">
+        <v>1.07</v>
+      </c>
+      <c r="K89" s="6">
+        <v>28.7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" s="7">
+        <v>45380</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C90" s="8">
+        <v>89</v>
+      </c>
+      <c r="D90" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="E90" s="8">
+        <v>2</v>
+      </c>
+      <c r="F90" s="8">
+        <v>140</v>
+      </c>
+      <c r="G90" s="8">
+        <v>314</v>
+      </c>
+      <c r="H90" s="8">
+        <v>301</v>
+      </c>
+      <c r="I90" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="J90" s="9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K90" s="11">
+        <v>63.5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <v>45381</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C91" s="1">
+        <v>90</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E91" s="1">
+        <v>2</v>
+      </c>
+      <c r="F91" s="1">
+        <v>80</v>
+      </c>
+      <c r="G91" s="1">
+        <v>349</v>
+      </c>
+      <c r="H91" s="1">
+        <v>350</v>
+      </c>
+      <c r="I91" s="4">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="J91" s="4">
+        <v>2.14</v>
+      </c>
+      <c r="K91" s="6">
+        <v>41.3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <v>45381</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C92" s="1">
+        <v>91</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E92" s="1">
+        <v>2</v>
+      </c>
+      <c r="F92" s="1">
+        <v>140</v>
+      </c>
+      <c r="G92" s="1">
+        <v>358</v>
+      </c>
+      <c r="H92" s="1">
+        <v>348</v>
+      </c>
+      <c r="I92" s="4">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="J92" s="4">
+        <v>2.44</v>
+      </c>
+      <c r="K92" s="6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>45381</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C93" s="1">
+        <v>92</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E93" s="1">
+        <v>2</v>
+      </c>
+      <c r="F93" s="1">
+        <v>160</v>
+      </c>
+      <c r="G93" s="1">
+        <v>342</v>
+      </c>
+      <c r="H93" s="1">
+        <v>331</v>
+      </c>
+      <c r="I93" s="4">
+        <v>-1.8</v>
+      </c>
+      <c r="J93" s="4">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="K93" s="6">
+        <v>74.7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <v>45381</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C94" s="1">
+        <v>93</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E94" s="1">
+        <v>2</v>
+      </c>
+      <c r="F94" s="1">
+        <v>160</v>
+      </c>
+      <c r="G94" s="1">
+        <v>331</v>
+      </c>
+      <c r="H94" s="1">
+        <v>324</v>
+      </c>
+      <c r="I94" s="4">
+        <v>-0.69</v>
+      </c>
+      <c r="J94" s="4">
+        <v>2.97</v>
+      </c>
+      <c r="K94" s="6">
+        <v>83.4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>45381</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C95" s="1">
+        <v>94</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E95" s="1">
+        <v>2</v>
+      </c>
+      <c r="F95" s="1">
+        <v>190</v>
+      </c>
+      <c r="G95" s="1">
+        <v>316</v>
+      </c>
+      <c r="H95" s="1">
+        <v>310</v>
+      </c>
+      <c r="I95" s="4">
+        <v>-0.9</v>
+      </c>
+      <c r="J95" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="K95" s="6">
+        <v>91.1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <v>45381</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C96" s="1">
+        <v>95</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E96" s="1">
+        <v>2</v>
+      </c>
+      <c r="F96" s="1">
+        <v>190</v>
+      </c>
+      <c r="G96" s="1">
+        <v>186</v>
+      </c>
+      <c r="H96" s="1">
+        <v>292</v>
+      </c>
+      <c r="I96" s="4">
+        <v>-1</v>
+      </c>
+      <c r="J96" s="4">
+        <v>2.17</v>
+      </c>
+      <c r="K96" s="6">
+        <v>88.6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" s="7">
+        <v>45381</v>
+      </c>
+      <c r="B97" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C97" s="8">
+        <v>96</v>
+      </c>
+      <c r="D97" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="E97" s="8">
+        <v>2</v>
+      </c>
+      <c r="F97" s="8">
+        <v>190</v>
+      </c>
+      <c r="G97" s="8">
+        <v>265</v>
+      </c>
+      <c r="H97" s="8">
+        <v>268</v>
+      </c>
+      <c r="I97" s="9">
+        <v>0</v>
+      </c>
+      <c r="J97" s="9">
+        <v>2.09</v>
+      </c>
+      <c r="K97" s="11">
+        <v>87.4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" s="2">
+        <v>45382</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C98" s="1">
+        <v>97</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E98" s="1">
+        <v>2</v>
+      </c>
+      <c r="F98" s="1">
+        <v>180</v>
+      </c>
+      <c r="G98" s="1">
+        <v>286</v>
+      </c>
+      <c r="H98" s="1">
+        <v>294</v>
+      </c>
+      <c r="I98" s="4">
+        <v>-1.2</v>
+      </c>
+      <c r="J98" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="K98" s="6">
+        <v>84.1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" s="2">
+        <v>45382</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C99" s="1">
+        <v>98</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E99" s="1">
+        <v>2</v>
+      </c>
+      <c r="F99" s="1">
+        <v>170</v>
+      </c>
+      <c r="G99" s="1">
+        <v>306</v>
+      </c>
+      <c r="H99" s="1">
+        <v>306</v>
+      </c>
+      <c r="I99" s="4">
+        <v>-2.5</v>
+      </c>
+      <c r="J99" s="4">
+        <v>1.61</v>
+      </c>
+      <c r="K99" s="6">
+        <v>80.599999999999994</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" s="2">
+        <v>45382</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C100" s="1">
+        <v>99</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E100" s="1">
+        <v>2</v>
+      </c>
+      <c r="F100" s="1">
+        <v>160</v>
+      </c>
+      <c r="G100" s="1">
+        <v>322</v>
+      </c>
+      <c r="H100" s="1">
+        <v>328</v>
+      </c>
+      <c r="I100" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="J100" s="4">
+        <v>1.46</v>
+      </c>
+      <c r="K100" s="6">
+        <v>75.8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" s="7">
+        <v>45382</v>
+      </c>
+      <c r="B101" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C101" s="8">
+        <v>100</v>
+      </c>
+      <c r="D101" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="E101" s="8">
+        <v>2</v>
+      </c>
+      <c r="F101" s="8">
+        <v>160</v>
+      </c>
+      <c r="G101" s="8">
+        <v>319</v>
+      </c>
+      <c r="H101" s="8">
+        <v>321</v>
+      </c>
+      <c r="I101" s="9">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="J101" s="9">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="K101" s="11">
+        <v>71.2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C102" s="1">
+        <v>101</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E102" s="1">
+        <v>2</v>
+      </c>
+      <c r="F102" s="1">
+        <v>140</v>
+      </c>
+      <c r="G102" s="1">
+        <v>340</v>
+      </c>
+      <c r="H102" s="1">
+        <v>337</v>
+      </c>
+      <c r="I102" s="4">
+        <v>-1.5</v>
+      </c>
+      <c r="J102" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="K102" s="6">
+        <v>66.900000000000006</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C103" s="1">
+        <v>102</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E103" s="1">
+        <v>2</v>
+      </c>
+      <c r="F103" s="1">
+        <v>140</v>
+      </c>
+      <c r="G103" s="1">
+        <v>18</v>
+      </c>
+      <c r="H103" s="1">
+        <v>2</v>
+      </c>
+      <c r="I103" s="4">
+        <v>-7.7</v>
+      </c>
+      <c r="J103" s="4">
+        <v>0.48</v>
+      </c>
+      <c r="K103" s="6">
+        <v>63.5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C104" s="1">
+        <v>103</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E104" s="1">
+        <v>2</v>
+      </c>
+      <c r="F104" s="1">
+        <v>140</v>
+      </c>
+      <c r="G104" s="1">
+        <v>317</v>
+      </c>
+      <c r="H104" s="1">
+        <v>330</v>
+      </c>
+      <c r="I104" s="4">
+        <v>-9.5</v>
+      </c>
+      <c r="J104" s="4">
+        <v>0.23</v>
+      </c>
+      <c r="K104" s="6">
+        <v>58.3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C105" s="1">
+        <v>104</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E105" s="1">
+        <v>2</v>
+      </c>
+      <c r="F105" s="1">
+        <v>110</v>
+      </c>
+      <c r="G105" s="1">
+        <v>312</v>
+      </c>
+      <c r="H105" s="1">
+        <v>328</v>
+      </c>
+      <c r="I105" s="4">
+        <v>-9.5</v>
+      </c>
+      <c r="J105" s="4">
+        <v>-0.45</v>
+      </c>
+      <c r="K105" s="6">
+        <v>48.7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106" s="7">
+        <v>45383</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C106" s="8">
+        <v>105</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="E106" s="8">
+        <v>2</v>
+      </c>
+      <c r="F106" s="8">
+        <v>110</v>
+      </c>
+      <c r="G106" s="8">
+        <v>13</v>
+      </c>
+      <c r="H106" s="8">
+        <v>22</v>
+      </c>
+      <c r="I106" s="9">
+        <v>-9.5</v>
+      </c>
+      <c r="J106" s="9">
+        <v>-0.99</v>
+      </c>
+      <c r="K106" s="11">
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107" s="2">
+        <v>45384</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C107" s="1">
+        <v>106</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E107" s="1">
+        <v>2</v>
+      </c>
+      <c r="F107" s="1">
+        <v>130</v>
+      </c>
+      <c r="G107" s="1">
+        <v>3</v>
+      </c>
+      <c r="H107" s="1">
+        <v>360</v>
+      </c>
+      <c r="I107" s="4">
+        <v>-2.6</v>
+      </c>
+      <c r="J107" s="4">
+        <v>0.64</v>
+      </c>
+      <c r="K107" s="6">
+        <v>57.3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108" s="2">
+        <v>45384</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C108" s="1">
+        <v>107</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E108" s="1">
+        <v>2</v>
+      </c>
+      <c r="F108" s="1">
+        <v>120</v>
+      </c>
+      <c r="G108" s="1">
+        <v>103</v>
+      </c>
+      <c r="H108" s="1">
+        <v>106</v>
+      </c>
+      <c r="I108" s="4">
+        <v>-3.4</v>
+      </c>
+      <c r="J108" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="K108" s="6">
+        <v>51.5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" s="2">
+        <v>45384</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C109" s="1">
+        <v>108</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E109" s="1">
+        <v>2</v>
+      </c>
+      <c r="F109" s="1">
+        <v>120</v>
+      </c>
+      <c r="G109" s="1">
+        <v>131</v>
+      </c>
+      <c r="H109" s="1">
+        <v>130</v>
+      </c>
+      <c r="I109" s="4">
+        <v>-4.0999999999999996</v>
+      </c>
+      <c r="J109" s="4">
+        <v>-1.24</v>
+      </c>
+      <c r="K109" s="6">
+        <v>46.1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" s="2">
+        <v>45384</v>
+      </c>
+      <c r="B110" t="s">
+        <v>170</v>
+      </c>
+      <c r="C110" s="1">
+        <v>109</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E110" s="1">
+        <v>2</v>
+      </c>
+      <c r="F110" s="1">
+        <v>110</v>
+      </c>
+      <c r="G110" s="1">
+        <v>326</v>
+      </c>
+      <c r="H110" s="1">
+        <v>329</v>
+      </c>
+      <c r="I110" s="4">
+        <v>-3.4</v>
+      </c>
+      <c r="J110" s="4">
+        <v>-1.42</v>
+      </c>
+      <c r="K110" s="6">
+        <v>44.1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111" s="2">
+        <v>45384</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C111" s="1">
+        <v>110</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E111" s="1">
+        <v>2</v>
+      </c>
+      <c r="F111" s="1">
+        <v>110</v>
+      </c>
+      <c r="G111" s="1">
+        <v>144</v>
+      </c>
+      <c r="H111" s="1">
+        <v>147</v>
+      </c>
+      <c r="I111" s="4">
+        <v>-3.3</v>
+      </c>
+      <c r="J111" s="4">
+        <v>-3.25</v>
+      </c>
+      <c r="K111" s="6">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112" s="7">
+        <v>45384</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C112" s="8">
+        <v>111</v>
+      </c>
+      <c r="D112" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E112" s="8">
+        <v>2</v>
+      </c>
+      <c r="F112" s="8">
+        <v>110</v>
+      </c>
+      <c r="G112" s="8">
+        <v>132</v>
+      </c>
+      <c r="H112" s="8">
+        <v>139</v>
+      </c>
+      <c r="I112" s="9">
+        <v>-3.1</v>
+      </c>
+      <c r="J112" s="9">
+        <v>-1.4</v>
+      </c>
+      <c r="K112" s="11">
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113" s="2">
+        <v>45385</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C113" s="1">
+        <v>112</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E113" s="1">
+        <v>2</v>
+      </c>
+      <c r="F113" s="1">
+        <v>110</v>
+      </c>
+      <c r="G113" s="1">
+        <v>202</v>
+      </c>
+      <c r="H113" s="1">
+        <v>219</v>
+      </c>
+      <c r="I113" s="4">
+        <v>-0.6</v>
+      </c>
+      <c r="J113" s="4">
+        <v>-1.42</v>
+      </c>
+      <c r="K113" s="6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114" s="2">
+        <v>45385</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C114" s="1">
+        <v>113</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E114" s="1">
+        <v>2</v>
+      </c>
+      <c r="F114" s="1">
+        <v>120</v>
+      </c>
+      <c r="G114" s="1">
+        <v>190</v>
+      </c>
+      <c r="H114" s="1">
+        <v>200</v>
+      </c>
+      <c r="I114" s="4">
+        <v>-0.1</v>
+      </c>
+      <c r="J114" s="4">
+        <v>-1.1399999999999999</v>
+      </c>
+      <c r="K114" s="6">
+        <v>50.5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115" s="2">
+        <v>45385</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C115" s="1">
+        <v>114</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E115" s="1">
+        <v>2</v>
+      </c>
+      <c r="F115" s="1">
+        <v>120</v>
+      </c>
+      <c r="G115" s="1">
+        <v>210</v>
+      </c>
+      <c r="H115" s="1">
+        <v>200</v>
+      </c>
+      <c r="I115" s="4">
+        <v>-0.1</v>
+      </c>
+      <c r="J115" s="4">
+        <v>-0.49</v>
+      </c>
+      <c r="K115" s="6">
+        <v>53.1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116" s="2">
+        <v>45385</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C116" s="1">
+        <v>115</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E116" s="1">
+        <v>2</v>
+      </c>
+      <c r="F116" s="1">
+        <v>140</v>
+      </c>
+      <c r="G116" s="1">
+        <v>220</v>
+      </c>
+      <c r="H116" s="1">
+        <v>217</v>
+      </c>
+      <c r="I116" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="J116" s="4">
+        <v>-0.11</v>
+      </c>
+      <c r="K116" s="6">
+        <v>62.6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117" s="2">
+        <v>45385</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C117" s="1">
+        <v>116</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E117" s="1">
+        <v>2</v>
+      </c>
+      <c r="F117" s="1">
+        <v>140</v>
+      </c>
+      <c r="G117" s="1">
+        <v>213</v>
+      </c>
+      <c r="H117" s="1">
+        <v>207</v>
+      </c>
+      <c r="I117" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="J117" s="4">
+        <v>0.21</v>
+      </c>
+      <c r="K117" s="6">
+        <v>66.599999999999994</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118" s="2">
+        <v>45385</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C118" s="1">
+        <v>117</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E118" s="1">
+        <v>2</v>
+      </c>
+      <c r="F118" s="1">
+        <v>140</v>
+      </c>
+      <c r="G118" s="1">
+        <v>224</v>
+      </c>
+      <c r="H118" s="1">
+        <v>216</v>
+      </c>
+      <c r="I118" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="J118" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="K118" s="6">
+        <v>68.099999999999994</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119" s="2">
+        <v>45385</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C119" s="1">
+        <v>118</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E119" s="1">
+        <v>2</v>
+      </c>
+      <c r="F119" s="1">
+        <v>150</v>
+      </c>
+      <c r="G119" s="1">
+        <v>172</v>
+      </c>
+      <c r="H119" s="1">
+        <v>182</v>
+      </c>
+      <c r="I119" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J119" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K119" s="6">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120" s="2">
+        <v>45385</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C120" s="1">
+        <v>119</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E120" s="1">
+        <v>2</v>
+      </c>
+      <c r="F120" s="1">
+        <v>150</v>
+      </c>
+      <c r="G120" s="1">
+        <v>194</v>
+      </c>
+      <c r="H120" s="1">
+        <v>193</v>
+      </c>
+      <c r="I120" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="J120" s="4">
+        <v>1.53</v>
+      </c>
+      <c r="K120" s="6">
+        <v>74.3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121" s="7">
+        <v>45385</v>
+      </c>
+      <c r="B121" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="C121" s="8">
+        <v>120</v>
+      </c>
+      <c r="D121" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="E121" s="8">
+        <v>2</v>
+      </c>
+      <c r="F121" s="8">
+        <v>160</v>
+      </c>
+      <c r="G121" s="8">
+        <v>196</v>
+      </c>
+      <c r="H121" s="8">
+        <v>197</v>
+      </c>
+      <c r="I121" s="9">
+        <v>3.6</v>
+      </c>
+      <c r="J121" s="9">
+        <v>1.6</v>
+      </c>
+      <c r="K121" s="11">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122" s="2">
+        <v>45386</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C122" s="1">
+        <v>121</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E122" s="1">
+        <v>2</v>
+      </c>
+      <c r="F122" s="1">
+        <v>170</v>
+      </c>
+      <c r="G122" s="1">
+        <v>232</v>
+      </c>
+      <c r="H122" s="1">
+        <v>241</v>
+      </c>
+      <c r="I122" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="J122" s="4">
+        <v>1.76</v>
+      </c>
+      <c r="K122" s="6">
+        <v>86.1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123" s="2">
+        <v>45386</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C123" s="1">
+        <v>122</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E123" s="1">
+        <v>2</v>
+      </c>
+      <c r="F123" s="1">
+        <v>180</v>
+      </c>
+      <c r="G123" s="1">
+        <v>225</v>
+      </c>
+      <c r="H123" s="1">
+        <v>229</v>
+      </c>
+      <c r="I123" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J123" s="4">
+        <v>2.06</v>
+      </c>
+      <c r="K123" s="6">
+        <v>88.1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124" s="2">
+        <v>45386</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C124" s="1">
+        <v>123</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E124" s="1">
+        <v>2</v>
+      </c>
+      <c r="F124" s="1">
+        <v>180</v>
+      </c>
+      <c r="G124" s="1">
+        <v>213</v>
+      </c>
+      <c r="H124" s="1">
+        <v>225</v>
+      </c>
+      <c r="I124" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="J124" s="4">
+        <v>2.02</v>
+      </c>
+      <c r="K124" s="6">
+        <v>89.5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125" s="2">
+        <v>45386</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C125" s="1">
+        <v>124</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E125" s="1">
+        <v>2</v>
+      </c>
+      <c r="F125" s="1">
+        <v>180</v>
+      </c>
+      <c r="G125" s="1">
+        <v>238</v>
+      </c>
+      <c r="H125" s="1">
+        <v>239</v>
+      </c>
+      <c r="I125" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="J125" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K125" s="6">
+        <v>92.3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126" s="2">
+        <v>45386</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C126" s="1">
+        <v>125</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E126" s="1">
+        <v>2</v>
+      </c>
+      <c r="F126" s="1">
+        <v>190</v>
+      </c>
+      <c r="G126" s="1">
+        <v>211</v>
+      </c>
+      <c r="H126" s="1">
+        <v>220</v>
+      </c>
+      <c r="I126" s="4">
+        <v>3.7</v>
+      </c>
+      <c r="J126" s="4">
+        <v>2.99</v>
+      </c>
+      <c r="K126" s="6">
+        <v>94.8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127" s="2">
+        <v>45386</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C127" s="1">
+        <v>126</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E127" s="1">
+        <v>2</v>
+      </c>
+      <c r="F127" s="1">
+        <v>180</v>
+      </c>
+      <c r="G127" s="1">
+        <v>186</v>
+      </c>
+      <c r="H127" s="1">
+        <v>205</v>
+      </c>
+      <c r="I127" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="J127" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="K127" s="6">
+        <v>91.1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A128" s="2">
+        <v>45386</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C128" s="1">
+        <v>127</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E128" s="1">
+        <v>2</v>
+      </c>
+      <c r="F128" s="1">
+        <v>150</v>
+      </c>
+      <c r="G128" s="1">
+        <v>237</v>
+      </c>
+      <c r="H128" s="1">
+        <v>238</v>
+      </c>
+      <c r="I128" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="J128" s="4">
+        <v>2.6</v>
+      </c>
+      <c r="K128" s="6">
+        <v>72.59</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129" s="2">
+        <v>45386</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C129" s="1">
+        <v>128</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E129" s="1">
+        <v>2</v>
+      </c>
+      <c r="F129" s="1">
+        <v>80</v>
+      </c>
+      <c r="G129" s="1">
+        <v>232</v>
+      </c>
+      <c r="H129" s="1">
+        <v>227</v>
+      </c>
+      <c r="I129" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="J129" s="4">
+        <v>2.6</v>
+      </c>
+      <c r="K129" s="6">
+        <v>41.4</v>
       </c>
     </row>
   </sheetData>
